--- a/data/Omics_Details.xlsx
+++ b/data/Omics_Details.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\OMICS\Data_Analysis\WoS_Museomics\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FADD6FDA-F519-451B-806A-EAE1B183B2C9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAA4E8DE-6461-413E-A224-9BF01D857907}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7550" xr2:uid="{6806EE0F-C14A-4578-8B4E-C27358939139}"/>
   </bookViews>
   <sheets>
-    <sheet name="Paperdaten" sheetId="3" r:id="rId1"/>
+    <sheet name="Data" sheetId="3" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Paperdaten!$A$1:$I$134</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Data!$A$1:$I$134</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
